--- a/vocabularies/sheet2rdf/vocabulary.xlsx
+++ b/vocabularies/sheet2rdf/vocabulary.xlsx
@@ -898,11 +898,7 @@
           <t>Audiovisual</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FIXME</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
